--- a/Labs/07-uart/tab.xlsx
+++ b/Labs/07-uart/tab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\tissedre\Digital-electronics-2\Digital-electronics-2\Labs\07-uart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pault\OneDrive\Documents\vut\digital_electronics\Labs\07-uart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{9F6E8D6A-71D5-462F-9D17-C5A4F845D49B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFCE6EB-6F1C-4F23-8C6B-CA59BDF17270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{94B37853-980D-4A66-B5C3-97EC419BDF93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94B37853-980D-4A66-B5C3-97EC419BDF93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -472,15 +472,15 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -491,7 +491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -519,7 +519,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -533,7 +533,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -547,7 +547,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -561,12 +561,12 @@
         <v>639</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1023</v>
@@ -575,13 +575,13 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -592,7 +592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -603,7 +603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -611,22 +611,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
